--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-GW-grondwerken.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-GW-grondwerken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{70EA8EE0-FC0E-4AD8-BC8F-D8FBAA5B3266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{29732D36-3AA6-4F7F-B438-118B566760CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19E1B27F-1A8E-4839-9C34-565E3FE95134}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A65297DF-4B65-4040-9A21-B38DB8E631CE}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-GW-grondwe" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="193">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -307,6 +307,12 @@
     <t>0.50</t>
   </si>
   <si>
+    <t>GRONDWERK_TEENLIJN</t>
+  </si>
+  <si>
+    <t>GRONDWERK_KRUINLIJN</t>
+  </si>
+  <si>
     <t>WINNINGSVAK_ZAND</t>
   </si>
   <si>
@@ -370,6 +376,15 @@
     <t>GRONDWERK_KNIKLIJN</t>
   </si>
   <si>
+    <t>GRONDWERK_ONDERWATER</t>
+  </si>
+  <si>
+    <t>GW-GRONDWERK_ONDERWATER-SO</t>
+  </si>
+  <si>
+    <t>V-GW-GRONDWERK_ONDERWATER-SO</t>
+  </si>
+  <si>
     <t>WATERGANG</t>
   </si>
   <si>
@@ -562,12 +577,6 @@
     <t>GRONDSOORTEN</t>
   </si>
   <si>
-    <t>GRONDWERK_TEENLIJN</t>
-  </si>
-  <si>
-    <t>GRONDWERK_KRUINLIJN</t>
-  </si>
-  <si>
     <t>GRONDSCHEIDINGEN</t>
   </si>
   <si>
@@ -593,9 +602,6 @@
   </si>
   <si>
     <t>GRONDSCHEIDINGEN_GEOTEXTIEL_WATERDOORLATEND</t>
-  </si>
-  <si>
-    <t>GRONDWERK_ONDERWATER</t>
   </si>
 </sst>
 </file>
@@ -1455,16 +1461,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBE2007-8CAF-45E9-9738-5B0956952D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC88C07-0B3A-4A0E-BE6D-CF6B9B4CE015}">
   <dimension ref="A1:AJ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.26953125" customWidth="1"/>
+    <col min="35" max="35" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1686,7 +1694,7 @@
         <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -1787,7 +1795,7 @@
         <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -1888,7 +1896,7 @@
         <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>454</v>
@@ -1992,7 +2000,7 @@
         <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>454</v>
@@ -2200,7 +2208,7 @@
         <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -2405,7 +2413,7 @@
         <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>439</v>
@@ -2509,7 +2517,7 @@
         <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>439</v>
@@ -2613,7 +2621,7 @@
         <v>3097</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D12">
         <v>439</v>
@@ -2925,7 +2933,7 @@
         <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>433</v>
@@ -3029,7 +3037,7 @@
         <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>433</v>
@@ -3341,7 +3349,7 @@
         <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>436</v>
@@ -3445,7 +3453,7 @@
         <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>436</v>
@@ -3546,7 +3554,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -3623,7 +3631,7 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -3700,7 +3708,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -3777,7 +3785,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -3854,7 +3862,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -3931,7 +3939,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -4008,7 +4016,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -4085,7 +4093,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -4162,7 +4170,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4242,7 +4250,7 @@
         <v>477</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4266,7 +4274,7 @@
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M30" t="s">
         <v>41</v>
@@ -4287,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="S30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T30" t="s">
         <v>41</v>
@@ -4308,7 +4316,7 @@
         <v>7</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA30" t="s">
         <v>41</v>
@@ -4329,7 +4337,7 @@
         <v>7</v>
       </c>
       <c r="AG30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH30" t="s">
         <v>45</v>
@@ -4343,7 +4351,7 @@
         <v>483</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D31">
         <v>477</v>
@@ -4370,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M31" t="s">
         <v>41</v>
@@ -4391,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="S31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="T31" t="s">
         <v>41</v>
@@ -4412,7 +4420,7 @@
         <v>7</v>
       </c>
       <c r="Z31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AA31" t="s">
         <v>41</v>
@@ -4433,7 +4441,7 @@
         <v>7</v>
       </c>
       <c r="AG31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AH31" t="s">
         <v>45</v>
@@ -4447,7 +4455,7 @@
         <v>484</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D32">
         <v>483</v>
@@ -4474,7 +4482,7 @@
         <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s">
         <v>41</v>
@@ -4495,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="S32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="T32" t="s">
         <v>41</v>
@@ -4516,7 +4524,7 @@
         <v>7</v>
       </c>
       <c r="Z32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AA32" t="s">
         <v>41</v>
@@ -4537,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="AG32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AH32" t="s">
         <v>45</v>
@@ -4949,7 +4957,7 @@
         <v>485</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D37">
         <v>477</v>
@@ -4976,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M37" t="s">
         <v>41</v>
@@ -4997,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="S37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="T37" t="s">
         <v>41</v>
@@ -5018,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="Z37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AA37" t="s">
         <v>41</v>
@@ -5039,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="AG37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AH37" t="s">
         <v>45</v>
@@ -5053,7 +5061,7 @@
         <v>486</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D38">
         <v>485</v>
@@ -5080,7 +5088,7 @@
         <v>7</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M38" t="s">
         <v>41</v>
@@ -5101,7 +5109,7 @@
         <v>7</v>
       </c>
       <c r="S38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="T38" t="s">
         <v>41</v>
@@ -5122,7 +5130,7 @@
         <v>7</v>
       </c>
       <c r="Z38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AA38" t="s">
         <v>41</v>
@@ -5143,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="AG38" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AH38" t="s">
         <v>45</v>
@@ -5157,7 +5165,7 @@
         <v>3002</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D39">
         <v>477</v>
@@ -5184,7 +5192,7 @@
         <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M39" t="s">
         <v>41</v>
@@ -5205,7 +5213,7 @@
         <v>7</v>
       </c>
       <c r="S39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T39" t="s">
         <v>41</v>
@@ -5226,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="Z39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA39" t="s">
         <v>41</v>
@@ -5247,7 +5255,7 @@
         <v>7</v>
       </c>
       <c r="AG39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH39" t="s">
         <v>45</v>
@@ -5258,7 +5266,7 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>477</v>
@@ -5285,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M40" t="s">
         <v>41</v>
@@ -5306,7 +5314,7 @@
         <v>7</v>
       </c>
       <c r="S40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T40" t="s">
         <v>41</v>
@@ -5327,7 +5335,7 @@
         <v>7</v>
       </c>
       <c r="Z40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA40" t="s">
         <v>41</v>
@@ -5348,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="AG40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH40" t="s">
         <v>41</v>
@@ -5359,7 +5367,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -5383,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M41" t="s">
         <v>41</v>
@@ -5404,7 +5412,7 @@
         <v>7</v>
       </c>
       <c r="S41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T41" t="s">
         <v>41</v>
@@ -5425,7 +5433,7 @@
         <v>7</v>
       </c>
       <c r="Z41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA41" t="s">
         <v>41</v>
@@ -5446,7 +5454,7 @@
         <v>7</v>
       </c>
       <c r="AG41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH41" t="s">
         <v>41</v>
@@ -5460,7 +5468,7 @@
         <v>3003</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D42">
         <v>477</v>
@@ -5487,7 +5495,7 @@
         <v>7</v>
       </c>
       <c r="L42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s">
         <v>41</v>
@@ -5508,7 +5516,7 @@
         <v>7</v>
       </c>
       <c r="S42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T42" t="s">
         <v>41</v>
@@ -5529,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="Z42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA42" t="s">
         <v>41</v>
@@ -5550,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="AG42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH42" t="s">
         <v>45</v>
@@ -5564,7 +5572,7 @@
         <v>487</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>477</v>
@@ -5591,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M43" t="s">
         <v>41</v>
@@ -5612,7 +5620,7 @@
         <v>7</v>
       </c>
       <c r="S43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="T43" t="s">
         <v>41</v>
@@ -5633,7 +5641,7 @@
         <v>7</v>
       </c>
       <c r="Z43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AA43" t="s">
         <v>41</v>
@@ -5654,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="AG43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH43" t="s">
         <v>45</v>
@@ -5668,7 +5676,7 @@
         <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D44">
         <v>487</v>
@@ -5695,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M44" t="s">
         <v>41</v>
@@ -5716,7 +5724,7 @@
         <v>7</v>
       </c>
       <c r="S44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="T44" t="s">
         <v>41</v>
@@ -5737,7 +5745,7 @@
         <v>7</v>
       </c>
       <c r="Z44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AA44" t="s">
         <v>41</v>
@@ -5758,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="AG44" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH44" t="s">
         <v>45</v>
@@ -5772,7 +5780,7 @@
         <v>489</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>477</v>
@@ -5799,7 +5807,7 @@
         <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M45" t="s">
         <v>41</v>
@@ -5820,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="S45" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="T45" t="s">
         <v>41</v>
@@ -5841,7 +5849,7 @@
         <v>7</v>
       </c>
       <c r="Z45" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AA45" t="s">
         <v>41</v>
@@ -5862,7 +5870,7 @@
         <v>7</v>
       </c>
       <c r="AG45" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH45" t="s">
         <v>45</v>
@@ -5876,7 +5884,7 @@
         <v>490</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D46">
         <v>489</v>
@@ -5903,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M46" t="s">
         <v>41</v>
@@ -5924,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="S46" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="T46" t="s">
         <v>41</v>
@@ -5945,7 +5953,7 @@
         <v>7</v>
       </c>
       <c r="Z46" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AA46" t="s">
         <v>41</v>
@@ -5966,7 +5974,7 @@
         <v>7</v>
       </c>
       <c r="AG46" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AH46" t="s">
         <v>45</v>
@@ -5980,7 +5988,7 @@
         <v>3004</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D47">
         <v>477</v>
@@ -6007,7 +6015,7 @@
         <v>7</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M47" t="s">
         <v>41</v>
@@ -6028,7 +6036,7 @@
         <v>7</v>
       </c>
       <c r="S47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T47" t="s">
         <v>41</v>
@@ -6049,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="Z47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA47" t="s">
         <v>41</v>
@@ -6070,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="AG47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH47" t="s">
         <v>45</v>
@@ -6084,7 +6092,7 @@
         <v>3005</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D48">
         <v>477</v>
@@ -6111,7 +6119,7 @@
         <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M48" t="s">
         <v>41</v>
@@ -6132,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="S48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T48" t="s">
         <v>41</v>
@@ -6153,7 +6161,7 @@
         <v>7</v>
       </c>
       <c r="Z48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA48" t="s">
         <v>41</v>
@@ -6174,7 +6182,7 @@
         <v>7</v>
       </c>
       <c r="AG48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH48" t="s">
         <v>45</v>
@@ -6188,7 +6196,7 @@
         <v>493</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D49">
         <v>477</v>
@@ -6215,7 +6223,7 @@
         <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M49" t="s">
         <v>41</v>
@@ -6236,7 +6244,7 @@
         <v>7</v>
       </c>
       <c r="S49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="T49" t="s">
         <v>41</v>
@@ -6257,7 +6265,7 @@
         <v>7</v>
       </c>
       <c r="Z49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AA49" t="s">
         <v>41</v>
@@ -6278,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="AG49" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AH49" t="s">
         <v>45</v>
@@ -6292,7 +6300,7 @@
         <v>494</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D50">
         <v>493</v>
@@ -6319,7 +6327,7 @@
         <v>7</v>
       </c>
       <c r="L50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M50" t="s">
         <v>41</v>
@@ -6340,7 +6348,7 @@
         <v>7</v>
       </c>
       <c r="S50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="T50" t="s">
         <v>41</v>
@@ -6361,7 +6369,7 @@
         <v>7</v>
       </c>
       <c r="Z50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AA50" t="s">
         <v>41</v>
@@ -6382,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="AG50" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AH50" t="s">
         <v>45</v>
@@ -6396,7 +6404,7 @@
         <v>495</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>477</v>
@@ -6423,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="L51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M51" t="s">
         <v>41</v>
@@ -6444,7 +6452,7 @@
         <v>7</v>
       </c>
       <c r="S51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="T51" t="s">
         <v>41</v>
@@ -6465,7 +6473,7 @@
         <v>7</v>
       </c>
       <c r="Z51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA51" t="s">
         <v>41</v>
@@ -6486,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="AG51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AH51" t="s">
         <v>45</v>
@@ -6500,7 +6508,7 @@
         <v>496</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D52">
         <v>495</v>
@@ -6527,7 +6535,7 @@
         <v>7</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M52" t="s">
         <v>41</v>
@@ -6548,7 +6556,7 @@
         <v>7</v>
       </c>
       <c r="S52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="T52" t="s">
         <v>41</v>
@@ -6569,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="Z52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA52" t="s">
         <v>41</v>
@@ -6590,7 +6598,7 @@
         <v>7</v>
       </c>
       <c r="AG52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AH52" t="s">
         <v>45</v>
@@ -6604,7 +6612,7 @@
         <v>497</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D53">
         <v>477</v>
@@ -6631,7 +6639,7 @@
         <v>7</v>
       </c>
       <c r="L53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M53" t="s">
         <v>41</v>
@@ -6652,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="S53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="T53" t="s">
         <v>41</v>
@@ -6673,7 +6681,7 @@
         <v>7</v>
       </c>
       <c r="Z53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AA53" t="s">
         <v>41</v>
@@ -6694,7 +6702,7 @@
         <v>7</v>
       </c>
       <c r="AG53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AH53" t="s">
         <v>45</v>
@@ -6708,7 +6716,7 @@
         <v>498</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D54">
         <v>497</v>
@@ -6735,7 +6743,7 @@
         <v>7</v>
       </c>
       <c r="L54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M54" t="s">
         <v>41</v>
@@ -6756,7 +6764,7 @@
         <v>7</v>
       </c>
       <c r="S54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="T54" t="s">
         <v>41</v>
@@ -6777,7 +6785,7 @@
         <v>7</v>
       </c>
       <c r="Z54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AA54" t="s">
         <v>41</v>
@@ -6798,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="AG54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AH54" t="s">
         <v>45</v>
@@ -6916,7 +6924,7 @@
         <v>481</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D56">
         <v>480</v>
@@ -7020,7 +7028,7 @@
         <v>482</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>480</v>
@@ -7124,7 +7132,7 @@
         <v>499</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D58">
         <v>477</v>
@@ -7151,7 +7159,7 @@
         <v>7</v>
       </c>
       <c r="L58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M58" t="s">
         <v>41</v>
@@ -7172,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="S58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="T58" t="s">
         <v>41</v>
@@ -7193,7 +7201,7 @@
         <v>7</v>
       </c>
       <c r="Z58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AA58" t="s">
         <v>41</v>
@@ -7214,7 +7222,7 @@
         <v>7</v>
       </c>
       <c r="AG58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AH58" t="s">
         <v>45</v>
@@ -7228,7 +7236,7 @@
         <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D59">
         <v>499</v>
@@ -7255,7 +7263,7 @@
         <v>7</v>
       </c>
       <c r="L59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M59" t="s">
         <v>41</v>
@@ -7276,7 +7284,7 @@
         <v>7</v>
       </c>
       <c r="S59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="T59" t="s">
         <v>41</v>
@@ -7297,7 +7305,7 @@
         <v>7</v>
       </c>
       <c r="Z59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AA59" t="s">
         <v>41</v>
@@ -7318,7 +7326,7 @@
         <v>7</v>
       </c>
       <c r="AG59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AH59" t="s">
         <v>45</v>
@@ -7332,7 +7340,7 @@
         <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D60">
         <v>477</v>
@@ -7359,7 +7367,7 @@
         <v>7</v>
       </c>
       <c r="L60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M60" t="s">
         <v>41</v>
@@ -7380,7 +7388,7 @@
         <v>7</v>
       </c>
       <c r="S60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="T60" t="s">
         <v>41</v>
@@ -7401,7 +7409,7 @@
         <v>7</v>
       </c>
       <c r="Z60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AA60" t="s">
         <v>41</v>
@@ -7422,7 +7430,7 @@
         <v>7</v>
       </c>
       <c r="AG60" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AH60" t="s">
         <v>45</v>
@@ -7436,7 +7444,7 @@
         <v>503</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D61">
         <v>501</v>
@@ -7463,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M61" t="s">
         <v>41</v>
@@ -7484,7 +7492,7 @@
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="T61" t="s">
         <v>41</v>
@@ -7505,7 +7513,7 @@
         <v>7</v>
       </c>
       <c r="Z61" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA61" t="s">
         <v>41</v>
@@ -7526,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="AG61" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AH61" t="s">
         <v>45</v>
@@ -7540,7 +7548,7 @@
         <v>504</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D62">
         <v>503</v>
@@ -7567,7 +7575,7 @@
         <v>7</v>
       </c>
       <c r="L62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M62" t="s">
         <v>41</v>
@@ -7588,7 +7596,7 @@
         <v>7</v>
       </c>
       <c r="S62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="T62" t="s">
         <v>41</v>
@@ -7609,7 +7617,7 @@
         <v>7</v>
       </c>
       <c r="Z62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA62" t="s">
         <v>41</v>
@@ -7630,7 +7638,7 @@
         <v>7</v>
       </c>
       <c r="AG62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AH62" t="s">
         <v>45</v>
@@ -7644,7 +7652,7 @@
         <v>505</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D63">
         <v>501</v>
@@ -7671,7 +7679,7 @@
         <v>7</v>
       </c>
       <c r="L63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M63" t="s">
         <v>41</v>
@@ -7692,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="S63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="T63" t="s">
         <v>41</v>
@@ -7713,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="Z63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AA63" t="s">
         <v>41</v>
@@ -7734,7 +7742,7 @@
         <v>7</v>
       </c>
       <c r="AG63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AH63" t="s">
         <v>45</v>
@@ -7748,7 +7756,7 @@
         <v>506</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D64">
         <v>505</v>
@@ -7775,7 +7783,7 @@
         <v>7</v>
       </c>
       <c r="L64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M64" t="s">
         <v>41</v>
@@ -7796,7 +7804,7 @@
         <v>7</v>
       </c>
       <c r="S64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="T64" t="s">
         <v>41</v>
@@ -7817,7 +7825,7 @@
         <v>7</v>
       </c>
       <c r="Z64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AA64" t="s">
         <v>41</v>
@@ -7838,7 +7846,7 @@
         <v>7</v>
       </c>
       <c r="AG64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AH64" t="s">
         <v>45</v>
@@ -7852,7 +7860,7 @@
         <v>502</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D65">
         <v>501</v>
@@ -7879,7 +7887,7 @@
         <v>7</v>
       </c>
       <c r="L65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M65" t="s">
         <v>41</v>
@@ -7900,7 +7908,7 @@
         <v>7</v>
       </c>
       <c r="S65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="T65" t="s">
         <v>41</v>
@@ -7921,7 +7929,7 @@
         <v>7</v>
       </c>
       <c r="Z65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AA65" t="s">
         <v>41</v>
@@ -7942,7 +7950,7 @@
         <v>7</v>
       </c>
       <c r="AG65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AH65" t="s">
         <v>45</v>
@@ -7956,7 +7964,7 @@
         <v>3006</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D66">
         <v>477</v>
@@ -7983,7 +7991,7 @@
         <v>7</v>
       </c>
       <c r="L66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M66" t="s">
         <v>41</v>
@@ -8004,7 +8012,7 @@
         <v>7</v>
       </c>
       <c r="S66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T66" t="s">
         <v>41</v>
@@ -8025,7 +8033,7 @@
         <v>7</v>
       </c>
       <c r="Z66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA66" t="s">
         <v>41</v>
@@ -8046,7 +8054,7 @@
         <v>7</v>
       </c>
       <c r="AG66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AH66" t="s">
         <v>45</v>
@@ -8060,7 +8068,7 @@
         <v>509</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D67">
         <v>477</v>
@@ -8087,7 +8095,7 @@
         <v>7</v>
       </c>
       <c r="L67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M67" t="s">
         <v>41</v>
@@ -8108,7 +8116,7 @@
         <v>7</v>
       </c>
       <c r="S67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T67" t="s">
         <v>41</v>
@@ -8129,7 +8137,7 @@
         <v>7</v>
       </c>
       <c r="Z67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AA67" t="s">
         <v>41</v>
@@ -8150,7 +8158,7 @@
         <v>7</v>
       </c>
       <c r="AG67" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AH67" t="s">
         <v>45</v>
@@ -8164,7 +8172,7 @@
         <v>510</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D68">
         <v>509</v>
@@ -8191,7 +8199,7 @@
         <v>7</v>
       </c>
       <c r="L68" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M68" t="s">
         <v>41</v>
@@ -8212,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="S68" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="T68" t="s">
         <v>41</v>
@@ -8233,7 +8241,7 @@
         <v>7</v>
       </c>
       <c r="Z68" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AA68" t="s">
         <v>41</v>
@@ -8254,7 +8262,7 @@
         <v>7</v>
       </c>
       <c r="AG68" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AH68" t="s">
         <v>45</v>
@@ -8268,7 +8276,7 @@
         <v>424</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
@@ -8366,7 +8374,7 @@
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D70">
         <v>424</v>
@@ -8470,7 +8478,7 @@
         <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="D71">
         <v>424</v>
@@ -8500,6 +8508,27 @@
         <v>253</v>
       </c>
       <c r="M71" t="s">
+        <v>41</v>
+      </c>
+      <c r="N71" t="s">
+        <v>93</v>
+      </c>
+      <c r="O71">
+        <v>90</v>
+      </c>
+      <c r="P71">
+        <v>92</v>
+      </c>
+      <c r="Q71">
+        <v>90</v>
+      </c>
+      <c r="R71">
+        <v>90</v>
+      </c>
+      <c r="S71">
+        <v>253</v>
+      </c>
+      <c r="T71" t="s">
         <v>41</v>
       </c>
       <c r="U71" t="s">
@@ -8550,7 +8579,7 @@
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>424</v>
@@ -8560,6 +8589,90 @@
       </c>
       <c r="F72" t="s">
         <v>39</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>253</v>
+      </c>
+      <c r="M72" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" t="s">
+        <v>93</v>
+      </c>
+      <c r="O72">
+        <v>10</v>
+      </c>
+      <c r="P72">
+        <v>12</v>
+      </c>
+      <c r="Q72">
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <v>10</v>
+      </c>
+      <c r="S72">
+        <v>253</v>
+      </c>
+      <c r="T72" t="s">
+        <v>118</v>
+      </c>
+      <c r="U72" t="s">
+        <v>40</v>
+      </c>
+      <c r="V72">
+        <v>10</v>
+      </c>
+      <c r="W72">
+        <v>12</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Y72">
+        <v>10</v>
+      </c>
+      <c r="Z72">
+        <v>253</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC72">
+        <v>10</v>
+      </c>
+      <c r="AD72">
+        <v>12</v>
+      </c>
+      <c r="AE72">
+        <v>10</v>
+      </c>
+      <c r="AF72">
+        <v>12</v>
+      </c>
+      <c r="AG72">
+        <v>253</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
@@ -8570,7 +8683,7 @@
         <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="D73">
         <v>424</v>
@@ -8600,6 +8713,27 @@
         <v>253</v>
       </c>
       <c r="M73" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73" t="s">
+        <v>93</v>
+      </c>
+      <c r="O73">
+        <v>90</v>
+      </c>
+      <c r="P73">
+        <v>92</v>
+      </c>
+      <c r="Q73">
+        <v>90</v>
+      </c>
+      <c r="R73">
+        <v>90</v>
+      </c>
+      <c r="S73">
+        <v>253</v>
+      </c>
+      <c r="T73" t="s">
         <v>41</v>
       </c>
       <c r="U73" t="s">
@@ -8653,7 +8787,7 @@
         <v>416</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
@@ -9372,7 +9506,7 @@
         <v>519</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -9473,7 +9607,7 @@
         <v>515</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -9574,7 +9708,7 @@
         <v>473</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -9987,7 +10121,7 @@
         <v>442</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
@@ -10400,7 +10534,7 @@
         <v>520</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
@@ -10501,7 +10635,7 @@
         <v>415</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
@@ -10528,7 +10662,7 @@
         <v>253</v>
       </c>
       <c r="M92" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N92" t="s">
         <v>42</v>
@@ -10549,7 +10683,7 @@
         <v>253</v>
       </c>
       <c r="T92" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="U92" t="s">
         <v>42</v>
@@ -10570,7 +10704,7 @@
         <v>253</v>
       </c>
       <c r="AA92" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AB92" t="s">
         <v>42</v>
@@ -10591,7 +10725,7 @@
         <v>253</v>
       </c>
       <c r="AH92" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
@@ -10602,7 +10736,7 @@
         <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
@@ -11015,7 +11149,7 @@
         <v>518</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
@@ -11633,7 +11767,7 @@
         <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
@@ -11942,7 +12076,7 @@
         <v>430</v>
       </c>
       <c r="C106" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
@@ -12043,7 +12177,7 @@
         <v>446</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
@@ -12456,7 +12590,7 @@
         <v>458</v>
       </c>
       <c r="C111" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
@@ -12765,7 +12899,7 @@
         <v>466</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D114">
         <v>463</v>
@@ -12869,7 +13003,7 @@
         <v>465</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D115">
         <v>463</v>
@@ -12973,7 +13107,7 @@
         <v>464</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D116">
         <v>463</v>
@@ -13493,7 +13627,7 @@
         <v>471</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D121">
         <v>468</v>
@@ -13597,7 +13731,7 @@
         <v>470</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D122">
         <v>468</v>
@@ -13701,7 +13835,7 @@
         <v>469</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D123">
         <v>468</v>
@@ -14221,7 +14355,7 @@
         <v>511</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
@@ -14322,7 +14456,7 @@
         <v>512</v>
       </c>
       <c r="C129" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D129">
         <v>511</v>
@@ -14426,7 +14560,7 @@
         <v>513</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D130">
         <v>511</v>
@@ -14530,7 +14664,7 @@
         <v>514</v>
       </c>
       <c r="C131" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D131">
         <v>511</v>
@@ -14627,7 +14761,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ131" xr:uid="{BDBE2007-8CAF-45E9-9738-5B0956952D0D}">
+  <autoFilter ref="A1:AJ131" xr:uid="{8AC88C07-0B3A-4A0E-BE6D-CF6B9B4CE015}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ131">
       <sortCondition ref="C1:C131"/>
     </sortState>
